--- a/Test_2025-12-25_10-26.xlsx
+++ b/Test_2025-12-25_10-26.xlsx
@@ -44,19 +44,19 @@
     <t>1 2 3 (ONE TWO THREE) 20 F.C.TABS.</t>
   </si>
   <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>0:1</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>0.0000</t>
-  </si>
-  <si>
-    <t>0:0</t>
   </si>
   <si>
     <t>Thursday, 25 December, 2025 10:26 AM</t>
@@ -732,7 +732,7 @@
     </row>
     <row r="8" ht="25.5" customHeight="1">
       <c r="N8" s="13">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="O8" s="13"/>
       <c r="P8" s="13"/>
